--- a/Income/SYK_inc.xlsx
+++ b/Income/SYK_inc.xlsx
@@ -1983,16 +1983,16 @@
         <v>0.6022</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.6065</v>
+        <v>0.6119</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.6118</v>
+        <v>0.6172</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.6385</v>
+        <v>0.6436</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.6463</v>
+        <v>0.6514</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.6495</v>
@@ -3507,16 +3507,16 @@
         <v>0.2612</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.2575</v>
+        <v>0.251</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.2393</v>
+        <v>0.2327</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.2526</v>
+        <v>0.2464</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.2408</v>
+        <v>0.2345</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.2217</v>
